--- a/Daten/PV-Einspeisungszeitreihen.xlsx
+++ b/Daten/PV-Einspeisungszeitreihen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Masterarbeit\Masterarbeit\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{112C3220-B355-4AA7-AAAD-BED88A4EF95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9469C7B2-7B4E-49C7-8704-3D00A6B42A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{948D4AE4-2168-4633-BBB2-22FB14BBC3BF}"/>
+    <workbookView xWindow="-25320" yWindow="3900" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{948D4AE4-2168-4633-BBB2-22FB14BBC3BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Winter" sheetId="1" r:id="rId1"/>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B2A585-B65C-4F10-B756-951297D39A69}">
   <dimension ref="A1:G673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G673"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B64" sqref="B63:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17247,9 +17247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D74AC3-44A4-4C96-B3CC-00B40A45E697}">
   <dimension ref="A1:G673"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G673"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
